--- a/Redis.xlsx
+++ b/Redis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690" tabRatio="866" activeTab="9"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="866" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -190,22 +190,191 @@
     <t>redis 过期策略是：定期删除+惰性删除。</t>
   </si>
   <si>
-    <t>所谓定期删除，指的是 redis 默认是每隔 100ms 就随机抽取一些设置了过期时间的 key，检查其是否过期，如果过期就删除。</t>
-  </si>
-  <si>
-    <t>但是问题是，定期删除可能会导致很多过期 key 到了时间并没有被删除掉，那咋整呢？所以就是惰性删除了</t>
-  </si>
-  <si>
-    <t>这就是说，在你获取某个 key 的时候，redis 会检查一下 ，这个 key 如果设置了过期时间那么是否过期了？如果过期了此时就会删除，不会给你返回任何东西。</t>
-  </si>
-  <si>
-    <t>但是实际上这还是有问题的，如果定期删除漏掉了很多过期 key，然后你也没及时去查，也就没走惰性删除，此时会怎么样？</t>
-  </si>
-  <si>
-    <t>如果大量过期 key 堆积在内存里，导致 redis 内存块耗尽了，咋整？</t>
-  </si>
-  <si>
-    <t>答案是：走内存淘汰机制。</t>
+    <r>
+      <t>所谓定期删除，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>指的是 redis 默认是每隔 100ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 就</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>随机抽取一些设置了过期时间的 key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>检查其是否过期，如果过期就删除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>但是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>问题是，定期删除可能会导致</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>很多过期 key 到了时间并没有被删除掉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，那咋整呢？</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所以就是惰性删除了</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>这就是说，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在你获取某个 key 的时候，redis 会检查一下 ，这个 key 如果设置了过期时间那么是否过期了？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果过期了此时就会删除，不会给你返回任何东西。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>但是实际上这还是有问题的，如果定期删除漏掉了很多过期 key，然后你也没及时去查，也就没走惰性删除，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>此时会怎么样？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>如果大量过期 key 堆积在内存里，导致 redis 内存块耗尽了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，咋整？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>答案是：走</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>内存淘汰机制。</t>
+    </r>
   </si>
   <si>
     <t>内存淘汰机制</t>
@@ -215,14 +384,28 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>allkeys-lru：当内存不足以容纳新写入数据时，在键空间中，</t>
+      <t>allkeys-lru：当内存不足以容纳新写入数据时，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在键空间中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
     </r>
     <r>
       <rPr>
@@ -250,7 +433,30 @@
     <t>allkeys-random：当内存不足以容纳新写入数据时，在键空间中，随机移除某个 key，这个一般没人用吧，为啥要随机，肯定是把最近最少使用的 key 给干掉啊。</t>
   </si>
   <si>
-    <t>volatile-lru：当内存不足以容纳新写入数据时，在设置了过期时间的键空间中，移除最近最少使用的 key（这个一般不太合适）。</t>
+    <r>
+      <t>volatile-lru：当内存不足以容纳新写入数据时，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在设置了过期时间的键空间中，移除最近最少使用的 key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（这个一般不太合适）。</t>
+    </r>
   </si>
   <si>
     <t>volatile-random：当内存不足以容纳新写入数据时，在设置了过期时间的键空间中，随机移除某个 key。</t>
@@ -262,7 +468,41 @@
     <t>redis 如何才能做到高可用</t>
   </si>
   <si>
-    <t>redis 的高可用架构，叫做 failover 故障转移，也可以叫做主备切换。</t>
+    <r>
+      <t>redis 的高可用架构，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>叫做 failover 故障转移</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>也可以叫做主备切换。</t>
+    </r>
   </si>
   <si>
     <t>master node 在故障时，自动检测，并且将某个 slave node 自动切换为 master node 的过程，叫做主备切换。</t>
@@ -274,10 +514,77 @@
     <t>如何保证 redis 的高并发和高可用？</t>
   </si>
   <si>
-    <t>redis 实现高并发主要依靠主从架构，一主多从，一般来说，很多项目其实就足够了，单主用来写入数据，</t>
-  </si>
-  <si>
-    <t>单机几万 QPS，多从用来查询数据，多个从实例可以提供每秒 10w 的 QPS。</t>
+    <r>
+      <t>redis 实现高并发主要</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>依靠主从架构，一主多从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，一般来说，很多项目其实就足够了，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单主用来写入数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>单机几万 QPS，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多从用来查询数据，多个从实例可以提供每秒 10w 的 QPS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <t>如果想要在实现高并发的同时，容纳大量的数据，那么就需要 redis 集群，使用 redis 集群之后，可以提供每秒几十万的读写并发。</t>
@@ -289,10 +596,56 @@
     <t>Redis 主从架构（高可用）</t>
   </si>
   <si>
-    <t>单机的 redis，能够承载的 QPS 大概就在上万到几万不等。对于缓存来说，一般都是用来支撑读高并发的。</t>
-  </si>
-  <si>
-    <t>因此架构做成主从(master-slave)架构，一主多从，主负责写，并且将数据复制到其它的 slave 节点，从节点负责读。</t>
+    <r>
+      <t>单机的 redis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>能够承载的 QPS 大概就在上万到几万不等</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。对于缓存来说，一般都是用来支撑读高并发的。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>因此</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>架构做成主从(master-slave)架构，一主多从，主负责写，并且将数据复制到其它的 slave 节点，从节点负责读。</t>
+    </r>
   </si>
   <si>
     <t>所有的读请求全部走从节点。这样也可以很轻松实现水平扩容，支撑读高并发。</t>
@@ -325,19 +678,188 @@
     <t>redis 主从复制的核心原理</t>
   </si>
   <si>
-    <t>当启动一个 slave node 的时候，它会发送一个 PSYNC 命令给 master node。</t>
-  </si>
-  <si>
-    <t>如果这是 slave node 初次连接到 master node，那么会触发一次 full resynchronization 全量复制。</t>
-  </si>
-  <si>
-    <t>此时 master 会启动一个后台线程，开始生成一份 RDB 快照文件，同时还会将从客户端 client 新收到的所有写命令缓存在内存中。</t>
-  </si>
-  <si>
-    <t>RDB 文件生成完毕后， master 会将这个 RDB 发送给 slave，slave 会先写入本地磁盘，然后再从本地磁盘加载到内存中，</t>
-  </si>
-  <si>
-    <t>接着 master 会将内存中缓存的写命令发送到 slave，slave 也会同步这些数据。</t>
+    <r>
+      <t>当</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>启动一个 slave node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的时候，它会</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发送一个 PSYNC 命令给 master node。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">如果这是 slave node </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>初次连接到 master node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，那么会</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>触发一次 full resynchronization 全量复制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>此时 master 会启动一个后台线程，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开始生成一份 RDB 快照文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，同时还会将从客户端 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>client 新收到的所有写命令缓存在内存中。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RDB 文件生成完毕后， </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>master 会将这个 RDB 发送给 slave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>slave 会先写入本地磁盘，然后再从本地磁盘加载到内存中，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">接着 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>master 会将内存中缓存的写命令发送到 slave，slave 也会同步这些数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <t>redis 哨兵主备切换的数据丢失问题</t>
@@ -1052,13 +1574,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">16379 端口号是用来进行节点间通信的，也就是 </t>
     </r>
     <r>
@@ -1080,7 +1595,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 的东西，cluster bus 的通信，用来进行故障检测、配置更新、故障转移授权。</t>
+      <t xml:space="preserve"> 的东西，cluster bus 的通信，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用来进行故障检测、配置更新、故障转移授权。</t>
     </r>
   </si>
   <si>
@@ -1120,7 +1646,51 @@
     <t>节点间的内部通信机制</t>
   </si>
   <si>
-    <t>集群元数据的维护有两种方式：集中式、Gossip 协议。redis cluster 节点间采用 gossip 协议进行通信。</t>
+    <r>
+      <t>集群元数据的维护有两种方式：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>集中式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gossip 协议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。redis cluster 节点间采用 gossip 协议进行通信。</t>
+    </r>
   </si>
   <si>
     <t>集中式</t>
@@ -2678,8 +3248,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -2709,31 +3279,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2744,8 +3292,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2767,31 +3316,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2805,16 +3339,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2828,17 +3368,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2853,7 +3423,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2865,7 +3543,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2877,7 +3573,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2889,151 +3597,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3044,69 +3614,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3130,6 +3637,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3144,6 +3675,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3152,10 +3722,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3164,19 +3734,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3185,112 +3755,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4195,7 +4765,7 @@
   <sheetPr/>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -4332,7 +4902,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4348,8 +4918,8 @@
   <sheetPr/>
   <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -4437,32 +5007,32 @@
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4487,7 +5057,7 @@
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4694,7 +5264,7 @@
   <dimension ref="A1:L86"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74:F77"/>
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4708,12 +5278,12 @@
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4756,10 +5326,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="4"/>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -4834,7 +5404,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C13" s="5"/>
@@ -5572,7 +6142,7 @@
       </c>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5582,7 +6152,7 @@
       </c>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>81</v>
       </c>
     </row>
@@ -5684,8 +6254,8 @@
   <sheetPr/>
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -5864,8 +6434,8 @@
   <sheetPr/>
   <dimension ref="A1:D171"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="M173" sqref="M173"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -5909,7 +6479,7 @@
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>138</v>
       </c>
     </row>
@@ -6274,7 +6844,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/Redis.xlsx
+++ b/Redis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="866" activeTab="4"/>
+    <workbookView windowWidth="24525" windowHeight="12240" tabRatio="866" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="291">
   <si>
     <t>项目中缓存是如何使用的？为什么要用缓存？</t>
   </si>
@@ -157,12 +157,30 @@
     <t>list</t>
   </si>
   <si>
+    <t>就是链表（redis 使用双端链表实现的 List），是有序的，value可以重复，可以通过下标取出对应的value值，左右两边都能进行插入和删除数据。</t>
+  </si>
+  <si>
     <t>set</t>
   </si>
   <si>
     <t>sorted set</t>
   </si>
   <si>
+    <t>skiplist跳跃表</t>
+  </si>
+  <si>
+    <t>对于一个单链表来讲，即便链表中存储的数据是有序的，如果我们要想在其中查找某个数据，也只能从头到尾遍历链表。这样查找效率就会很低，时间复杂度会很高，是 O(n)。</t>
+  </si>
+  <si>
+    <t>如果我们想要提高其查找效率，可以考虑在链表上建索引的方式</t>
+  </si>
+  <si>
+    <t>每两个结点提取一个结点到上一级，我们把抽出来的那一级叫作索引。</t>
+  </si>
+  <si>
+    <t>加来一层索引之后，查找一个结点需要遍的结点个数减少了，也就是说查找效率提高了</t>
+  </si>
+  <si>
     <t>分别在哪些场景下使用比较合适？</t>
   </si>
   <si>
@@ -191,6 +209,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>所谓定期删除，</t>
     </r>
     <r>
@@ -259,6 +284,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>但是</t>
     </r>
     <r>
@@ -306,6 +339,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这就是说，</t>
     </r>
     <r>
@@ -332,6 +372,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>但是实际上这还是有问题的，如果定期删除漏掉了很多过期 key，然后你也没及时去查，也就没走惰性删除，</t>
     </r>
     <r>
@@ -347,6 +395,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>如果大量过期 key 堆积在内存里，导致 redis 内存块耗尽了</t>
     </r>
     <r>
@@ -362,6 +418,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>答案是：走</t>
     </r>
     <r>
@@ -384,6 +447,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>allkeys-lru：当内存不足以容纳新写入数据时，</t>
     </r>
     <r>
@@ -434,6 +504,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>volatile-lru：当内存不足以容纳新写入数据时，</t>
     </r>
     <r>
@@ -469,6 +546,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>redis 的高可用架构，</t>
     </r>
     <r>
@@ -515,6 +599,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>redis 实现高并发主要</t>
     </r>
     <r>
@@ -562,6 +653,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>单机几万 QPS，</t>
     </r>
     <r>
@@ -597,6 +695,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>单机的 redis</t>
     </r>
     <r>
@@ -633,6 +739,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>因此</t>
     </r>
     <r>
@@ -679,6 +792,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>当</t>
     </r>
     <r>
@@ -716,6 +836,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">如果这是 slave node </t>
     </r>
     <r>
@@ -763,6 +890,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>此时 master 会启动一个后台线程，</t>
     </r>
     <r>
@@ -800,6 +934,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">RDB 文件生成完毕后， </t>
     </r>
     <r>
@@ -837,6 +978,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">接着 </t>
     </r>
     <r>
@@ -1574,6 +1722,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">16379 端口号是用来进行节点间通信的，也就是 </t>
     </r>
     <r>
@@ -1647,6 +1802,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>集群元数据的维护有两种方式：</t>
     </r>
     <r>
@@ -3248,10 +3410,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -3279,14 +3441,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3302,14 +3493,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3325,44 +3524,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3383,32 +3569,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3423,7 +3585,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3435,13 +3633,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3453,25 +3675,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3483,7 +3687,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3495,43 +3747,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3543,67 +3759,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3620,8 +3782,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3633,6 +3795,36 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3661,41 +3853,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3722,10 +3884,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3734,19 +3896,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3755,116 +3917,116 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3885,6 +4047,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3998,6 +4169,53 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6772275" y="1571625"/>
+          <a:ext cx="4305300" cy="2371725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>15</xdr:row>
@@ -4083,7 +4301,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4256,7 +4474,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4429,7 +4647,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4916,13 +5134,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="10.75" customWidth="1"/>
@@ -4943,178 +5161,326 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
         <v>26</v>
       </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
+    <row r="8" spans="1:10">
+      <c r="A8" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="3:3">
-      <c r="C13" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="2" t="s">
+    <row r="35" spans="2:2">
+      <c r="B35" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
-      <c r="B28" t="s">
+    <row r="36" spans="2:2">
+      <c r="B36" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="2" t="s">
+    <row r="37" spans="2:2">
+      <c r="B37" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
-      <c r="B30" t="s">
+    <row r="38" spans="2:2">
+      <c r="B38" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
-      <c r="B31" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37"/>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38"/>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40"/>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43"/>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44"/>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45"/>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46"/>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47"/>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48"/>
@@ -5250,11 +5616,57 @@
     </row>
     <row r="92" spans="1:1">
       <c r="A92"/>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93"/>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5274,27 +5686,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -5311,7 +5723,7 @@
     <row r="7" spans="1:12">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -5328,7 +5740,7 @@
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -5343,7 +5755,7 @@
     <row r="9" spans="1:12">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -5359,7 +5771,7 @@
     <row r="10" spans="1:12">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -5388,7 +5800,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -5405,7 +5817,7 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -5421,7 +5833,7 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -5437,7 +5849,7 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -5718,7 +6130,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -5735,7 +6147,7 @@
     <row r="36" spans="1:12">
       <c r="A36" s="4"/>
       <c r="B36" s="5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -5751,7 +6163,7 @@
     <row r="37" spans="1:12">
       <c r="A37" s="4"/>
       <c r="B37" s="5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -5767,7 +6179,7 @@
     <row r="38" spans="1:12">
       <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -5783,7 +6195,7 @@
     <row r="39" spans="1:12">
       <c r="A39" s="4"/>
       <c r="B39" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -5799,7 +6211,7 @@
     <row r="40" spans="1:12">
       <c r="A40" s="4"/>
       <c r="B40" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -5816,7 +6228,7 @@
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -5831,7 +6243,7 @@
     <row r="42" spans="1:12">
       <c r="A42" s="4"/>
       <c r="B42" s="5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -5860,7 +6272,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -5877,7 +6289,7 @@
     <row r="45" spans="1:12">
       <c r="A45" s="4"/>
       <c r="B45" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -5893,7 +6305,7 @@
     <row r="46" spans="1:12">
       <c r="A46" s="4"/>
       <c r="B46" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -5909,7 +6321,7 @@
     <row r="47" spans="1:12">
       <c r="A47" s="4"/>
       <c r="B47" s="5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -5925,7 +6337,7 @@
     <row r="48" spans="1:12">
       <c r="A48" s="4"/>
       <c r="B48" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -5941,7 +6353,7 @@
     <row r="49" spans="1:12">
       <c r="A49" s="4"/>
       <c r="B49" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -6138,107 +6550,107 @@
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -6265,162 +6677,162 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -6434,7 +6846,7 @@
   <sheetPr/>
   <dimension ref="A1:D171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -6445,387 +6857,387 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="3" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" s="2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="128" spans="3:3">
       <c r="C128" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="129" spans="3:3">
       <c r="C129" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="130" spans="3:3">
       <c r="C130" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="131" spans="3:3">
       <c r="C131" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="132" spans="3:3">
       <c r="C132" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="133" spans="4:4">
       <c r="D133" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="136" spans="3:3">
       <c r="C136" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="137" spans="3:3">
       <c r="C137" s="1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="138" spans="4:4">
       <c r="D138" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="139" spans="3:3">
       <c r="C139" s="1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" s="1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="141" spans="3:3">
       <c r="C141" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="142" spans="3:3">
       <c r="C142" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="143" spans="4:4">
       <c r="D143" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="144" spans="3:3">
       <c r="C144" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="171" spans="3:3">
       <c r="C171" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -6854,127 +7266,127 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" s="2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="2" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="2" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -6999,107 +7411,107 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -7124,117 +7536,117 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -7260,47 +7672,47 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/Redis.xlsx
+++ b/Redis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24525" windowHeight="12240" tabRatio="866" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="866" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3412,8 +3412,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -3440,73 +3440,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -3515,31 +3448,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3563,7 +3473,82 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3571,6 +3556,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3585,25 +3585,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3615,37 +3609,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3663,7 +3627,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3675,25 +3645,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3705,13 +3681,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3729,13 +3705,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3747,25 +3729,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3783,18 +3783,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3810,6 +3823,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3832,47 +3860,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3884,10 +3884,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3896,19 +3896,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3917,116 +3917,116 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4049,9 +4049,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5137,7 +5134,7 @@
   <dimension ref="A1:J107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5187,190 +5184,190 @@
         <v>30</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="7"/>
       <c r="B11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="7"/>
       <c r="B12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">

--- a/Redis.xlsx
+++ b/Redis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="866" activeTab="1"/>
+    <workbookView windowWidth="24525" windowHeight="12240" tabRatio="866" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3412,8 +3412,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -3441,32 +3441,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3487,14 +3470,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3507,17 +3490,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3539,8 +3529,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3555,22 +3554,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3591,7 +3591,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3603,13 +3633,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3621,25 +3663,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3657,13 +3681,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3675,7 +3711,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3687,73 +3747,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3783,15 +3783,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3812,32 +3803,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3859,20 +3829,50 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3884,10 +3884,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3896,19 +3896,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3917,112 +3917,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4980,8 +4980,8 @@
   <sheetPr/>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -5134,7 +5134,7 @@
   <dimension ref="A1:J107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
